--- a/easy-trade/easy-tms/src/main/webapp/excel/CouponOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/CouponOrderExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rongyi\code\2016-09-02-coupon-order\easy-trade\easy-trade\easy-tms\src\main\webapp\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\trade\easy-trade\easy-trade\easy-tms\src\main\webapp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>买家账号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>红包金额（元）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>积分（元）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>平台促销券（元）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>订单状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,13 +72,29 @@
   </si>
   <si>
     <t>·</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台红包金额(元)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户红包金额(元)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销券（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销券类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -299,23 +307,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,23 +342,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,19 +532,20 @@
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -585,62 +560,71 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G15" t="s">
-        <v>15</v>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
